--- a/mod工具.xlsx
+++ b/mod工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewCiv" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1415">
   <si>
     <t>列名</t>
   </si>
@@ -1775,6 +1775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1803,6 +1810,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1831,6 +1845,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1859,6 +1880,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1887,6 +1915,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1915,6 +1950,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1943,6 +1985,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1971,6 +2020,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -1999,6 +2055,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2027,6 +2090,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2055,6 +2125,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2083,6 +2160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2111,6 +2195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2139,6 +2230,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2167,6 +2265,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2195,6 +2300,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2223,6 +2335,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形</t>
     </r>
     <r>
@@ -2254,6 +2373,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2282,6 +2408,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2310,6 +2443,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2338,6 +2478,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2366,6 +2513,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2394,6 +2548,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2422,6 +2583,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2450,6 +2618,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2478,6 +2653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2506,6 +2688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2534,6 +2723,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地貌</t>
     </r>
     <r>
@@ -2871,6 +3067,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成本递增参数</t>
     </r>
     <r>
@@ -5181,7 +5383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5209,12 +5411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5661,7 +5857,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
@@ -5685,16 +5881,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="16">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="17">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="18">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="18">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19">
@@ -5703,89 +5899,89 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5803,9 +5999,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5831,64 +6024,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5900,19 +6045,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5924,46 +6063,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5975,25 +6075,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6014,34 +6099,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6050,16 +6117,10 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6068,70 +6129,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6141,12 +6139,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6885,7 +6877,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{34016A87-98A9-4DBC-8AA3-2808A22A0BC5}">
+    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{60ACC323-4400-4DD4-9E1C-F21047CE2E4A}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -6894,7 +6886,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="双色系标题行首列镶边行表格样式_766e57" count="9" xr9:uid="{84A8E17C-D47A-474E-B8C8-8C7E7A2E1E4D}">
+    <tableStyle name="双色系标题行首列镶边行表格样式_766e57" count="9" xr9:uid="{317E1AAC-F164-4797-9798-6CB9A1E5BE55}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -6905,7 +6897,7 @@
       <tableStyleElement type="firstHeaderCell" dxfId="8"/>
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边列表格样式_e714ff" count="7" xr9:uid="{E919D835-5607-4D5B-AADE-77CD8F3062B5}">
+    <tableStyle name="中色系标题行镶边列表格样式_e714ff" count="7" xr9:uid="{603F8EF5-29F5-40FA-B244-6355F010E53C}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="totalRow" dxfId="20"/>
@@ -6914,7 +6906,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="17"/>
       <tableStyleElement type="firstColumnStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="简约边框浅色系标题行镶边行表格样式_85b9f4" count="10" xr9:uid="{CC62B678-925C-4C25-8D59-CF95D50920FE}">
+    <tableStyle name="简约边框浅色系标题行镶边行表格样式_85b9f4" count="10" xr9:uid="{851FD8D4-E4B5-48C7-BDF0-E292B4EEDE2E}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
@@ -7187,7 +7179,7 @@
   <sheetPr/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F7" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="F7" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -7263,26 +7255,26 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:12">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:12">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7381,30 +7373,30 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:12">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:12">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="4"/>
@@ -7481,7 +7473,7 @@
       <c r="J12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="56" t="s">
         <v>60</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -7510,7 +7502,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="122" t="s">
+      <c r="H13" s="54" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -7548,7 +7540,7 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="122" t="s">
+      <c r="H14" s="54" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -7586,7 +7578,7 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="122" t="s">
+      <c r="H15" s="54" t="s">
         <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -7624,7 +7616,7 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="122" t="s">
+      <c r="H16" s="54" t="s">
         <v>85</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -7662,10 +7654,10 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="123" t="s">
+      <c r="I17" s="55" t="s">
         <v>92</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -7678,17 +7670,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:12">
-      <c r="A18" s="9" t="s">
+    <row r="18" s="8" customFormat="1" spans="1:12">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="4"/>
@@ -7812,14 +7804,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" s="9" customFormat="1" spans="1:12">
-      <c r="A24" s="9" t="s">
+    <row r="24" s="8" customFormat="1" spans="1:12">
+      <c r="A24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>120</v>
       </c>
       <c r="I24" s="4"/>
@@ -8122,11 +8114,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:12">
-      <c r="A38" s="9" t="s">
+    <row r="38" s="8" customFormat="1" spans="1:12">
+      <c r="A38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I38" s="4"/>
@@ -8350,14 +8342,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" s="9" customFormat="1" spans="1:12">
-      <c r="A58" s="9" t="s">
+    <row r="58" s="8" customFormat="1" spans="1:12">
+      <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>163</v>
       </c>
       <c r="I58" s="4"/>
@@ -8365,17 +8357,17 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" s="9" customFormat="1" spans="1:12">
-      <c r="A59" s="9" t="s">
+    <row r="59" s="8" customFormat="1" spans="1:12">
+      <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>166</v>
       </c>
       <c r="I59" s="4"/>
@@ -11003,712 +10995,711 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="34.4545454545455" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.6363636363636" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.7272727272727" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.7272727272727" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="34.4545454545455" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.6363636363636" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.7272727272727" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.7272727272727" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="51" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="119"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" ht="17.5" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="119"/>
-    </row>
-    <row r="4" ht="17.5" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" ht="17.5" spans="1:2">
+      <c r="A4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="119">
-        <v>0</v>
-      </c>
-      <c r="D4" s="120"/>
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="17.5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="119">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>54</v>
       </c>
-      <c r="D5" s="119"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" ht="17.5" spans="1:4">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="119">
-        <v>1</v>
-      </c>
-      <c r="D6" s="119"/>
+      <c r="B6" s="51">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" ht="17.5" spans="1:4">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="119">
-        <v>1</v>
-      </c>
-      <c r="D7" s="119"/>
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" ht="17.5" spans="1:4">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="119">
-        <v>0</v>
-      </c>
-      <c r="D8" s="119"/>
+      <c r="B8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" ht="17.5" spans="1:4">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="119">
-        <v>0</v>
-      </c>
-      <c r="D9" s="119"/>
+      <c r="B9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" ht="17.5" spans="1:4">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="119">
-        <v>0</v>
-      </c>
-      <c r="D10" s="119"/>
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" ht="17.5" spans="1:4">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="119">
-        <v>0</v>
-      </c>
-      <c r="D11" s="119"/>
+      <c r="B11" s="51">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" ht="17.5" spans="1:4">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="119">
-        <v>0</v>
-      </c>
-      <c r="D12" s="119"/>
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" ht="17.5" spans="1:4">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="119">
-        <v>0</v>
-      </c>
-      <c r="D13" s="119"/>
+      <c r="B13" s="51">
+        <v>0</v>
+      </c>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" ht="17.5" spans="1:4">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="119">
-        <v>0</v>
-      </c>
-      <c r="D14" s="119"/>
+      <c r="B14" s="51">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" ht="17.5" spans="1:4">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="119">
-        <v>0</v>
-      </c>
-      <c r="D15" s="119"/>
+      <c r="B15" s="51">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" ht="17.5" spans="1:4">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="119">
-        <v>0</v>
-      </c>
-      <c r="D16" s="119"/>
+      <c r="B16" s="51">
+        <v>0</v>
+      </c>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" ht="17.5" spans="1:4">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" ht="17.5" spans="1:4">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="119">
-        <v>0</v>
-      </c>
-      <c r="D18" s="119"/>
+      <c r="B18" s="51">
+        <v>0</v>
+      </c>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" ht="17.5" spans="1:4">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="119">
-        <v>0</v>
-      </c>
-      <c r="D19" s="119"/>
+      <c r="B19" s="51">
+        <v>0</v>
+      </c>
+      <c r="D19" s="51"/>
     </row>
     <row r="20" ht="17.5" spans="1:4">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" ht="52.5" spans="1:4">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="119"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" ht="17.5" spans="1:4">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="119">
+      <c r="B22" s="51">
         <v>40</v>
       </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="119"/>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" ht="17.5" spans="1:4">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="119">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="51">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="119"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" ht="17.5" spans="1:4">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="119">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="119"/>
+      <c r="B24" s="51">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" ht="17.5" spans="1:4">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="119">
-        <v>0</v>
-      </c>
-      <c r="D25" s="119"/>
+      <c r="B25" s="51">
+        <v>0</v>
+      </c>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" ht="17.5" spans="1:4">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="119">
-        <v>1</v>
-      </c>
-      <c r="D26" s="119"/>
+      <c r="B26" s="51">
+        <v>1</v>
+      </c>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" ht="17.5" spans="1:4">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="119">
-        <v>0</v>
-      </c>
-      <c r="D27" s="119"/>
+      <c r="B27" s="51">
+        <v>0</v>
+      </c>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" ht="17.5" spans="1:4">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="119">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="119"/>
+      <c r="B28" s="51">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" ht="17.5" spans="1:4">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="119">
-        <v>0</v>
-      </c>
-      <c r="D29" s="119"/>
+      <c r="B29" s="51">
+        <v>0</v>
+      </c>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" ht="17.5" spans="1:4">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="119">
-        <v>0</v>
-      </c>
-      <c r="D30" s="119"/>
+      <c r="B30" s="51">
+        <v>0</v>
+      </c>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" ht="17.5" spans="1:4">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="119">
+      <c r="B31" s="51">
         <v>-1</v>
       </c>
-      <c r="D31" s="119"/>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" ht="17.5" spans="1:4">
-      <c r="A32" s="119" t="s">
+      <c r="A32" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="119">
-        <v>0</v>
-      </c>
-      <c r="D32" s="119"/>
+      <c r="B32" s="51">
+        <v>0</v>
+      </c>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" ht="17.5" spans="1:4">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="119">
-        <v>0</v>
-      </c>
-      <c r="D33" s="119"/>
+      <c r="B33" s="51">
+        <v>0</v>
+      </c>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" ht="17.5" spans="1:4">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="119">
-        <v>0</v>
-      </c>
-      <c r="D34" s="119"/>
+      <c r="B34" s="51">
+        <v>0</v>
+      </c>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" ht="17.5" spans="1:4">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="119"/>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" ht="17.5" spans="1:4">
-      <c r="A36" s="119" t="s">
+      <c r="A36" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="119">
-        <v>0</v>
-      </c>
-      <c r="D36" s="119"/>
+      <c r="B36" s="51">
+        <v>0</v>
+      </c>
+      <c r="D36" s="51"/>
     </row>
     <row r="37" ht="17.5" spans="1:4">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="119">
+      <c r="B37" s="51">
         <v>-1</v>
       </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="119"/>
-    </row>
-    <row r="38" s="37" customFormat="1" spans="1:2">
-      <c r="A38" s="37" t="s">
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="51"/>
+    </row>
+    <row r="38" s="20" customFormat="1" spans="1:2">
+      <c r="A38" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="39" ht="17.5" spans="1:2">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="120">
+      <c r="B39" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="17.5" spans="1:2">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="120">
+      <c r="B40" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="17.5" spans="1:2">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="120">
+      <c r="B41" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="17.5" spans="1:2">
-      <c r="A42" s="119" t="s">
+      <c r="A42" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="120">
+      <c r="B42" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="17.5" spans="1:2">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="37" customFormat="1" spans="1:2">
-      <c r="A44" s="37" t="s">
+      <c r="B43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="20" customFormat="1" spans="1:2">
+      <c r="A44" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B53" s="10">
-        <v>0</v>
-      </c>
-      <c r="C53" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" s="37" customFormat="1" spans="1:2">
-      <c r="A54" s="37" t="s">
+      <c r="B53" s="9">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" s="20" customFormat="1" spans="1:2">
+      <c r="A54" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="10">
-        <v>0</v>
-      </c>
-      <c r="C55" s="10">
+      <c r="B55" s="9">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B57" s="10">
-        <v>0</v>
-      </c>
-      <c r="C57" s="10">
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:2">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:2">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:2">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:2">
-      <c r="A61" s="121" t="s">
+      <c r="A61" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B62" s="10">
-        <v>0</v>
-      </c>
-      <c r="C62" s="10">
+      <c r="B62" s="9">
+        <v>0</v>
+      </c>
+      <c r="C62" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:2">
-      <c r="A63" s="121" t="s">
+      <c r="A63" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:2">
-      <c r="A64" s="121" t="s">
+      <c r="A64" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:2">
-      <c r="A65" s="121" t="s">
+      <c r="A65" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:2">
-      <c r="A66" s="121" t="s">
+      <c r="A66" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:2">
-      <c r="A67" s="121" t="s">
+      <c r="A67" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:2">
-      <c r="A68" s="121" t="s">
+      <c r="A68" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="121" t="s">
+      <c r="A69" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="B69" s="10">
-        <v>0</v>
-      </c>
-      <c r="C69" s="10">
+      <c r="B69" s="9">
+        <v>0</v>
+      </c>
+      <c r="C69" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:2">
-      <c r="A70" s="121" t="s">
+      <c r="A70" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:2">
-      <c r="A71" s="121" t="s">
+      <c r="A71" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:2">
-      <c r="A72" s="121" t="s">
+      <c r="A72" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="74" ht="17.5" spans="1:2">
-      <c r="A74" s="119" t="s">
+      <c r="A74" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="17.5" spans="1:2">
-      <c r="A75" s="119" t="s">
+      <c r="A75" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="76" ht="17.5" spans="1:2">
-      <c r="A76" s="119" t="s">
+      <c r="A76" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="77" ht="17.5" spans="1:2">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="78" ht="17.5" spans="1:2">
-      <c r="A78" s="119" t="s">
+      <c r="A78" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <v>0</v>
       </c>
     </row>
@@ -11730,792 +11721,792 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.5454545454545" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.9090909090909" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.7272727272727" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="26.5454545454545" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.9090909090909" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.7272727272727" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:4">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="117"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" ht="17.5" spans="1:4">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" ht="17.5" spans="1:4">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="117">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>120</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" ht="17.5" spans="1:4">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="51">
         <v>-1</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="117"/>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" ht="17.5" spans="1:4">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="51">
         <v>-1</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" ht="17.5" spans="1:4">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="117">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="117"/>
+      <c r="B7" s="51">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" ht="17.5" spans="1:4">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="117"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" ht="17.5" spans="1:4">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="117"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" ht="17.5" spans="1:4">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="117">
-        <v>0</v>
-      </c>
-      <c r="D10" s="117"/>
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" ht="17.5" spans="1:4">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="117">
-        <v>0</v>
-      </c>
-      <c r="D11" s="117"/>
+      <c r="B11" s="51">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" ht="17.5" spans="1:4">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" ht="17.5" spans="1:4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="117">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="51">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="117"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" ht="17.5" spans="1:4">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="117">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="117"/>
+      <c r="B14" s="51">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" ht="17.5" spans="1:4">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="117"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" ht="17.5" spans="1:4">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" ht="17.5" spans="1:4">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="117">
-        <v>0</v>
-      </c>
-      <c r="D17" s="117"/>
+      <c r="B17" s="51">
+        <v>0</v>
+      </c>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" ht="17.5" spans="1:4">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="117">
-        <v>0</v>
-      </c>
-      <c r="D18" s="117"/>
+      <c r="B18" s="51">
+        <v>0</v>
+      </c>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" ht="17.5" spans="1:4">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="117"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="20" ht="17.5" spans="1:4">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="117">
-        <v>0</v>
-      </c>
-      <c r="D20" s="117"/>
+      <c r="B20" s="51">
+        <v>0</v>
+      </c>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" ht="17.5" spans="1:4">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="117">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="117"/>
+      <c r="B21" s="51">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" ht="17.5" spans="1:4">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="117">
-        <v>0</v>
-      </c>
-      <c r="D22" s="117"/>
+      <c r="B22" s="51">
+        <v>0</v>
+      </c>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" ht="17.5" spans="1:4">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="117">
-        <v>0</v>
-      </c>
-      <c r="D23" s="117"/>
+      <c r="B23" s="51">
+        <v>0</v>
+      </c>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" ht="17.5" spans="1:4">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="B24" s="117">
-        <v>0</v>
-      </c>
-      <c r="D24" s="117"/>
+      <c r="B24" s="51">
+        <v>0</v>
+      </c>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" ht="17.5" spans="1:4">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B25" s="117">
-        <v>0</v>
-      </c>
-      <c r="D25" s="117"/>
+      <c r="B25" s="51">
+        <v>0</v>
+      </c>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" ht="17.5" spans="1:4">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="117">
-        <v>0</v>
-      </c>
-      <c r="D26" s="117"/>
+      <c r="B26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" ht="17.5" spans="1:4">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="117">
-        <v>0</v>
-      </c>
-      <c r="D27" s="117"/>
+      <c r="B27" s="51">
+        <v>0</v>
+      </c>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" ht="17.5" spans="1:4">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="117"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" ht="17.5" spans="1:4">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="117">
-        <v>0</v>
-      </c>
-      <c r="D29" s="117"/>
+      <c r="B29" s="51">
+        <v>0</v>
+      </c>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" ht="17.5" spans="1:4">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="B30" s="117">
-        <v>0</v>
-      </c>
-      <c r="D30" s="117"/>
+      <c r="B30" s="51">
+        <v>0</v>
+      </c>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" ht="17.5" spans="1:4">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="117">
-        <v>0</v>
-      </c>
-      <c r="D31" s="117"/>
+      <c r="B31" s="51">
+        <v>0</v>
+      </c>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" ht="17.5" spans="1:4">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="B32" s="117">
-        <v>0</v>
-      </c>
-      <c r="D32" s="117"/>
+      <c r="B32" s="51">
+        <v>0</v>
+      </c>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" ht="17.5" spans="1:4">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="B33" s="117">
-        <v>0</v>
-      </c>
-      <c r="D33" s="117"/>
+      <c r="B33" s="51">
+        <v>0</v>
+      </c>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" ht="17.5" spans="1:4">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="117"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" ht="17.5" spans="1:4">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="117">
-        <v>0</v>
-      </c>
-      <c r="D35" s="117"/>
+      <c r="B35" s="51">
+        <v>0</v>
+      </c>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" ht="17.5" spans="1:4">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="117"/>
+      <c r="D36" s="51"/>
     </row>
     <row r="37" ht="17.5" spans="1:4">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="117"/>
+      <c r="D37" s="51"/>
     </row>
     <row r="38" ht="17.5" spans="1:4">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="B38" s="117">
-        <v>0</v>
-      </c>
-      <c r="D38" s="117"/>
+      <c r="B38" s="51">
+        <v>0</v>
+      </c>
+      <c r="D38" s="51"/>
     </row>
     <row r="39" ht="17.5" spans="1:4">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="117"/>
+      <c r="D39" s="51"/>
     </row>
     <row r="40" ht="17.5" spans="1:2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="B40" s="117">
+      <c r="B40" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="17.5" spans="1:2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="51" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="42" ht="17.5" spans="1:2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B42" s="117">
+      <c r="B42" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="17.5" spans="1:2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B43" s="117">
+      <c r="B43" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="44" ht="17.5" spans="1:2">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="117">
+      <c r="B44" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="45" ht="17.5" spans="1:2">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="B45" s="117">
+      <c r="B45" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="46" ht="17.5" spans="1:2">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="B46" s="117">
+      <c r="B46" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="47" ht="17.5" spans="1:2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="B47" s="117">
+      <c r="B47" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="48" ht="17.5" spans="1:2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="B48" s="117">
+      <c r="B48" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="17.5" spans="1:2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="B49" s="117">
+      <c r="B49" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="50" ht="17.5" spans="1:2">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="B50" s="117">
+      <c r="B50" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="51" ht="17.5" spans="1:2">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="B51" s="117">
+      <c r="B51" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" ht="17.5" spans="1:2">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="117">
+      <c r="B54" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="55" ht="17.5" spans="1:2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="B55" s="117">
+      <c r="B55" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="56" ht="17.5" spans="1:2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B56" s="117">
+      <c r="B56" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="57" ht="17.5" spans="1:2">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="117">
+      <c r="B57" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="58" ht="17.5" spans="1:2">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="117">
+      <c r="B58" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="59" ht="17.5" spans="1:2">
-      <c r="A59" s="117" t="s">
+      <c r="A59" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B59" s="117">
+      <c r="B59" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="60" ht="17.5" spans="1:2">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="117">
+      <c r="B60" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="17.5" spans="1:2">
-      <c r="A61" s="117" t="s">
+      <c r="A61" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="B61" s="117">
+      <c r="B61" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="62" ht="17.5" spans="1:2">
-      <c r="A62" s="117" t="s">
+      <c r="A62" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="117">
+      <c r="B62" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="63" ht="17.5" spans="1:2">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="117">
+      <c r="B63" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="64" ht="17.5" spans="1:2">
-      <c r="A64" s="117" t="s">
+      <c r="A64" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="117">
+      <c r="B64" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="65" ht="17.5" spans="1:2">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="B65" s="117">
+      <c r="B65" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="17.5" spans="1:2">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="117">
+      <c r="B66" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="17.5" spans="1:2">
-      <c r="A67" s="117" t="s">
+      <c r="A67" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B67" s="117">
+      <c r="B67" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="68" ht="17.5" spans="1:2">
-      <c r="A68" s="117" t="s">
+      <c r="A68" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="B68" s="117">
+      <c r="B68" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="69" ht="17.5" spans="1:2">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="117">
+      <c r="B69" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="70" ht="17.5" spans="1:3">
-      <c r="A70" s="117" t="s">
+      <c r="A70" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="B70" s="117">
-        <v>0</v>
-      </c>
-      <c r="C70" s="10">
+      <c r="B70" s="51">
+        <v>0</v>
+      </c>
+      <c r="C70" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="71" ht="17.5" spans="1:2">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="B71" s="117">
+      <c r="B71" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="72" ht="17.5" spans="1:2">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="117">
+      <c r="B72" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="73" ht="17.5" spans="1:2">
-      <c r="A73" s="117" t="s">
+      <c r="A73" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="117">
+      <c r="B73" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="74" ht="17.5" spans="1:2">
-      <c r="A74" s="117" t="s">
+      <c r="A74" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="B74" s="117">
+      <c r="B74" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="17.5" spans="1:2">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="B75" s="117">
+      <c r="B75" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="76" ht="17.5" spans="1:2">
-      <c r="A76" s="117" t="s">
+      <c r="A76" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="117">
+      <c r="B76" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="77" ht="17.5" spans="1:2">
-      <c r="A77" s="117" t="s">
+      <c r="A77" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="B77" s="117">
+      <c r="B77" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="78" ht="17.5" spans="1:2">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="117">
+      <c r="B78" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="17.5" spans="1:2">
-      <c r="A79" s="117" t="s">
+      <c r="A79" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B79" s="117">
+      <c r="B79" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="80" ht="17.5" spans="1:2">
-      <c r="A80" s="117" t="s">
+      <c r="A80" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="117">
+      <c r="B80" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="81" ht="17.5" spans="1:2">
-      <c r="A81" s="117" t="s">
+      <c r="A81" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="82" ht="17.5" spans="1:2">
-      <c r="A82" s="117" t="s">
+      <c r="A82" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="83" ht="17.5" spans="1:2">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="117">
+      <c r="B83" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="84" ht="17.5" spans="1:2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B84" s="117">
+      <c r="B84" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="85" ht="17.5" spans="1:2">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="B85" s="117">
+      <c r="B85" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="86" ht="17.5" spans="1:2">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B86" s="117">
+      <c r="B86" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="17.5" spans="1:2">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="B87" s="117">
+      <c r="B87" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="88" ht="17.5" spans="1:2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="117">
+      <c r="B88" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="89" ht="17.5" spans="1:2">
-      <c r="A89" s="117" t="s">
+      <c r="A89" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="B89" s="117">
+      <c r="B89" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="108" ht="17.5" spans="1:2">
-      <c r="A108" s="117"/>
-      <c r="B108" s="117"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12529,1720 +12520,1720 @@
   <sheetPr/>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.0090909090909" style="10" customWidth="1"/>
-    <col min="2" max="2" width="38.7363636363636" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.3727272727273" style="10" customWidth="1"/>
-    <col min="4" max="4" width="43.2090909090909" style="10" customWidth="1"/>
-    <col min="5" max="5" width="43.6272727272727" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="10"/>
+    <col min="1" max="1" width="27.0090909090909" style="9" customWidth="1"/>
+    <col min="2" max="2" width="38.7363636363636" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.3727272727273" style="9" customWidth="1"/>
+    <col min="4" max="4" width="43.2090909090909" style="9" customWidth="1"/>
+    <col min="5" max="5" width="43.6272727272727" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="49" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="99">
-        <v>1</v>
-      </c>
-      <c r="C2" s="47">
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
         <v>3</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="26">
         <v>3</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="102">
-        <v>1</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
         <v>2</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="105">
-        <v>0</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55">
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26">
         <v>20</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="102">
-        <v>0</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="103">
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="105">
-        <v>0</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="106">
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="102">
-        <v>0</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="107" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="19" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="105">
-        <v>1</v>
-      </c>
-      <c r="C10" s="55">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
         <v>40</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="26">
         <v>60</v>
       </c>
-      <c r="E10" s="106">
+      <c r="E10" s="26">
         <v>120</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="103"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="105">
-        <v>0</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="106"/>
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="102">
-        <v>0</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="103"/>
+      <c r="B13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="105">
-        <v>0</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="106"/>
+      <c r="B14" s="26">
+        <v>0</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B15" s="102">
-        <v>0</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="103"/>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="105">
-        <v>0</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="106"/>
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="102">
-        <v>0</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="103"/>
+      <c r="B17" s="19">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="B18" s="105">
-        <v>0</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="106"/>
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="102">
-        <v>0</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="103"/>
+      <c r="B19" s="19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="B20" s="105">
-        <v>0</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="106"/>
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B21" s="102">
-        <v>0</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="103"/>
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="105">
-        <v>0</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="106"/>
+      <c r="B22" s="26">
+        <v>0</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B23" s="102">
-        <v>0</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="103"/>
+      <c r="B23" s="19">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="106"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="102">
-        <v>1</v>
-      </c>
-      <c r="C25" s="51">
-        <v>0</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="103">
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="105">
-        <v>0</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="106"/>
+      <c r="B26" s="26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="102">
-        <v>0</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="103"/>
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="106"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="102">
-        <v>0</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51">
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19">
         <v>4</v>
       </c>
-      <c r="E29" s="103"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="26" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="B31" s="102">
-        <v>1</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="103"/>
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="105">
-        <v>0</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="106"/>
+      <c r="B32" s="26">
+        <v>0</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="103"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="106"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="103"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="106"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="103"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="B38" s="105">
-        <v>1</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="106">
+      <c r="B38" s="26">
+        <v>1</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="103"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="106"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B41" s="102">
-        <v>0</v>
-      </c>
-      <c r="C41" s="51">
-        <v>1</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="103">
+      <c r="B41" s="19">
+        <v>0</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="B42" s="105">
-        <v>0</v>
-      </c>
-      <c r="C42" s="55">
+      <c r="B42" s="26">
+        <v>0</v>
+      </c>
+      <c r="C42" s="26">
         <v>3</v>
       </c>
-      <c r="D42" s="55">
-        <v>1</v>
-      </c>
-      <c r="E42" s="106">
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B43" s="102">
-        <v>0</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="103">
+      <c r="B43" s="19">
+        <v>0</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="105">
-        <v>0</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="106"/>
+      <c r="B44" s="26">
+        <v>0</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="B45" s="102">
-        <v>0</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="103">
+      <c r="B45" s="19">
+        <v>0</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="106"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="102">
-        <v>0</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51">
-        <v>1</v>
-      </c>
-      <c r="E47" s="103"/>
+      <c r="B47" s="19">
+        <v>0</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="B48" s="105">
-        <v>0</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="106"/>
+      <c r="B48" s="26">
+        <v>0</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="102">
-        <v>0</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="19">
+        <v>0</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="B50" s="105">
-        <v>0</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="106"/>
+      <c r="B50" s="26">
+        <v>0</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="102">
-        <v>0</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="19">
+        <v>0</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="B52" s="105">
-        <v>0</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="106">
+      <c r="B52" s="26">
+        <v>0</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="B53" s="102">
-        <v>0</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="103"/>
+      <c r="B53" s="19">
+        <v>0</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="106"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="103"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A56" s="104" t="s">
+      <c r="A56" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="106"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="103"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="106"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="102">
-        <v>0</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="103"/>
+      <c r="B59" s="19">
+        <v>0</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="B60" s="105">
-        <v>0</v>
-      </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="106"/>
+      <c r="B60" s="26">
+        <v>0</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A61" s="101" t="s">
+      <c r="A61" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="B61" s="102">
-        <v>0</v>
-      </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="103"/>
+      <c r="B61" s="19">
+        <v>0</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="B62" s="55">
-        <v>0</v>
-      </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55">
-        <v>1</v>
-      </c>
-      <c r="E62" s="106"/>
+      <c r="B62" s="26">
+        <v>0</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26">
+        <v>1</v>
+      </c>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="51">
-        <v>0</v>
-      </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="103"/>
+      <c r="B63" s="19">
+        <v>0</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="B64" s="55">
-        <v>1</v>
-      </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="106"/>
+      <c r="B64" s="26">
+        <v>1</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="B65" s="102">
-        <v>0</v>
-      </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="103"/>
+      <c r="B65" s="19">
+        <v>0</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B66" s="105">
-        <v>0</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="106"/>
+      <c r="B66" s="26">
+        <v>0</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="103"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="B68" s="105">
-        <v>0</v>
-      </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="106"/>
+      <c r="B68" s="26">
+        <v>0</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B69" s="102">
-        <v>1</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="103"/>
+      <c r="B69" s="19">
+        <v>1</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="B70" s="105">
-        <v>0</v>
-      </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="106"/>
+      <c r="B70" s="26">
+        <v>0</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A71" s="101" t="s">
+      <c r="A71" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="B71" s="102">
-        <v>1</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="103"/>
+      <c r="B71" s="19">
+        <v>1</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B72" s="105">
-        <v>0</v>
-      </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="106"/>
+      <c r="B72" s="26">
+        <v>0</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B73" s="102">
-        <v>0</v>
-      </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="103"/>
+      <c r="B73" s="19">
+        <v>0</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="B74" s="105">
-        <v>0</v>
-      </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="106"/>
+      <c r="B74" s="26">
+        <v>0</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="B75" s="51">
-        <v>0</v>
-      </c>
-      <c r="C75" s="51">
+      <c r="B75" s="19">
+        <v>0</v>
+      </c>
+      <c r="C75" s="19">
         <v>3</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="19">
         <v>3</v>
       </c>
-      <c r="E75" s="103"/>
+      <c r="E75" s="19"/>
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A76" s="109" t="s">
+      <c r="A76" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="106"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="103"/>
-    </row>
-    <row r="78" s="37" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A78" s="111" t="s">
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A78" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="112"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="108" t="s">
+      <c r="B79" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="103"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
     </row>
     <row r="80" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="B80" s="107" t="s">
+      <c r="B80" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="106"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B81" s="108" t="s">
+      <c r="B81" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="C81" s="51">
-        <v>1</v>
-      </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="103"/>
+      <c r="C81" s="19">
+        <v>1</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A82" s="104" t="s">
+      <c r="A82" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55">
-        <v>1</v>
-      </c>
-      <c r="E82" s="106">
+      <c r="C82" s="26"/>
+      <c r="D82" s="26">
+        <v>1</v>
+      </c>
+      <c r="E82" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A83" s="101" t="s">
+      <c r="A83" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B83" s="108" t="s">
+      <c r="B83" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="103"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="106"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B85" s="108" t="s">
+      <c r="B85" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="103"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
     </row>
     <row r="86" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A86" s="104" t="s">
+      <c r="A86" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B86" s="107" t="s">
+      <c r="B86" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="106"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="B87" s="108" t="s">
+      <c r="B87" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="C87" s="51">
-        <v>1</v>
-      </c>
-      <c r="D87" s="51"/>
-      <c r="E87" s="103"/>
+      <c r="C87" s="19">
+        <v>1</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="B88" s="107" t="s">
+      <c r="B88" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="106"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A89" s="101" t="s">
+      <c r="A89" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="B89" s="108" t="s">
+      <c r="B89" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51">
-        <v>1</v>
-      </c>
-      <c r="E89" s="103"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19">
+        <v>1</v>
+      </c>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A90" s="104" t="s">
+      <c r="A90" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="B90" s="107" t="s">
+      <c r="B90" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="106"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A91" s="101" t="s">
+      <c r="A91" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="108" t="s">
+      <c r="B91" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="103"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A92" s="104" t="s">
+      <c r="A92" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="106"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A93" s="101" t="s">
+      <c r="A93" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="B93" s="108" t="s">
+      <c r="B93" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="103"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="B94" s="107" t="s">
+      <c r="B94" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="106"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
     </row>
     <row r="95" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A95" s="101" t="s">
+      <c r="A95" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="B95" s="108" t="s">
+      <c r="B95" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="103"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A96" s="104" t="s">
+      <c r="A96" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="B96" s="107" t="s">
+      <c r="B96" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="106"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A97" s="101" t="s">
+      <c r="A97" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="B97" s="108" t="s">
+      <c r="B97" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="103">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="98" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A98" s="104" t="s">
+      <c r="A98" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="106"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
     </row>
     <row r="99" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A99" s="101" t="s">
+      <c r="A99" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="B99" s="108" t="s">
+      <c r="B99" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="103"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
     </row>
     <row r="100" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A100" s="104" t="s">
+      <c r="A100" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="B100" s="107" t="s">
+      <c r="B100" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="106"/>
-    </row>
-    <row r="101" s="37" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A101" s="111" t="s">
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A101" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="112"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
     </row>
     <row r="102" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A102" s="104" t="s">
+      <c r="A102" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B102" s="107" t="s">
+      <c r="B102" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="C102" s="55">
-        <v>1</v>
-      </c>
-      <c r="D102" s="55"/>
-      <c r="E102" s="106"/>
+      <c r="C102" s="26">
+        <v>1</v>
+      </c>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
     </row>
     <row r="103" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="103"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
     </row>
     <row r="104" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A104" s="104" t="s">
+      <c r="A104" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="B104" s="107" t="s">
+      <c r="B104" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="106"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A105" s="101" t="s">
+      <c r="A105" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B105" s="108" t="s">
+      <c r="B105" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51">
-        <v>1</v>
-      </c>
-      <c r="E105" s="103"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19">
+        <v>1</v>
+      </c>
+      <c r="E105" s="19"/>
     </row>
     <row r="106" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A106" s="104" t="s">
+      <c r="A106" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="B106" s="107" t="s">
+      <c r="B106" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="106"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
     </row>
     <row r="107" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A107" s="101" t="s">
+      <c r="A107" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="103"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
     </row>
     <row r="108" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A108" s="104" t="s">
+      <c r="A108" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="106"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
     </row>
     <row r="109" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A109" s="101" t="s">
+      <c r="A109" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="B109" s="108" t="s">
+      <c r="B109" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="103"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
     </row>
     <row r="110" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A110" s="104" t="s">
+      <c r="A110" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="B110" s="107" t="s">
+      <c r="B110" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="106"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
     </row>
     <row r="111" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A111" s="101" t="s">
+      <c r="A111" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="B111" s="108" t="s">
+      <c r="B111" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="103"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
     </row>
     <row r="112" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="B112" s="107" t="s">
+      <c r="B112" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="106"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
     </row>
     <row r="113" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A113" s="101" t="s">
+      <c r="A113" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B113" s="108" t="s">
+      <c r="B113" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="103"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
     </row>
     <row r="114" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A114" s="104" t="s">
+      <c r="A114" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="106"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
     </row>
     <row r="115" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A115" s="101" t="s">
+      <c r="A115" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="B115" s="108" t="s">
+      <c r="B115" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="103"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
     </row>
     <row r="116" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A116" s="104" t="s">
+      <c r="A116" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="B116" s="107" t="s">
+      <c r="B116" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="106"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
     </row>
     <row r="117" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A117" s="101" t="s">
+      <c r="A117" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="B117" s="108" t="s">
+      <c r="B117" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="103"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
     </row>
     <row r="118" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A118" s="104" t="s">
+      <c r="A118" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="B118" s="107" t="s">
+      <c r="B118" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="106"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
     </row>
     <row r="119" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A119" s="101" t="s">
+      <c r="A119" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="B119" s="108" t="s">
+      <c r="B119" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="103"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
     </row>
     <row r="120" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A120" s="104" t="s">
+      <c r="A120" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="106"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
     </row>
     <row r="121" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A121" s="101" t="s">
+      <c r="A121" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="B121" s="108" t="s">
+      <c r="B121" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="103"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
     </row>
     <row r="122" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A122" s="104" t="s">
+      <c r="A122" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="B122" s="107" t="s">
+      <c r="B122" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="106"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
     </row>
     <row r="123" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A123" s="101" t="s">
+      <c r="A123" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="B123" s="108" t="s">
+      <c r="B123" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="103"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
     </row>
     <row r="124" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A124" s="104" t="s">
+      <c r="A124" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="B124" s="107" t="s">
+      <c r="B124" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="106"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
     </row>
     <row r="125" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A125" s="101" t="s">
+      <c r="A125" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="B125" s="108" t="s">
+      <c r="B125" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="103"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
     </row>
     <row r="126" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="B126" s="107" t="s">
+      <c r="B126" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="106"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
     </row>
     <row r="127" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A127" s="101" t="s">
+      <c r="A127" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="B127" s="108" t="s">
+      <c r="B127" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="103"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
     </row>
     <row r="128" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A128" s="104" t="s">
+      <c r="A128" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="B128" s="107" t="s">
+      <c r="B128" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="106"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
     </row>
     <row r="129" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A129" s="101" t="s">
+      <c r="A129" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="B129" s="108" t="s">
+      <c r="B129" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="103">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="130" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A130" s="104" t="s">
+      <c r="A130" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="B130" s="107" t="s">
+      <c r="B130" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="106"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
     </row>
     <row r="131" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A131" s="101" t="s">
+      <c r="A131" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B131" s="108" t="s">
+      <c r="B131" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C131" s="51"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="103">
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="132" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A132" s="104" t="s">
+      <c r="A132" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="B132" s="107" t="s">
+      <c r="B132" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="106"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
     </row>
     <row r="133" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A133" s="101" t="s">
+      <c r="A133" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B133" s="108" t="s">
+      <c r="B133" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="103"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
     </row>
     <row r="134" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A134" s="104" t="s">
+      <c r="A134" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="B134" s="107" t="s">
+      <c r="B134" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="106"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
     </row>
     <row r="135" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A135" s="101" t="s">
+      <c r="A135" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="B135" s="108" t="s">
+      <c r="B135" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="103"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
     </row>
     <row r="136" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A136" s="104" t="s">
+      <c r="A136" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="B136" s="107" t="s">
+      <c r="B136" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="C136" s="55"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="106"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
     </row>
     <row r="137" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A137" s="101" t="s">
+      <c r="A137" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="B137" s="108" t="s">
+      <c r="B137" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="103"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
     </row>
     <row r="138" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A138" s="104" t="s">
+      <c r="A138" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="B138" s="107" t="s">
+      <c r="B138" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="C138" s="55"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="106"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
     </row>
     <row r="139" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A139" s="101" t="s">
+      <c r="A139" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="B139" s="108" t="s">
+      <c r="B139" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="103"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
     </row>
     <row r="140" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A140" s="104" t="s">
+      <c r="A140" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="B140" s="107" t="s">
+      <c r="B140" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="106"/>
-    </row>
-    <row r="141" s="37" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A141" s="113" t="s">
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="141" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A141" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="B141" s="114" t="s">
+      <c r="B141" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="C141" s="115"/>
-      <c r="D141" s="115"/>
-      <c r="E141" s="116"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
     </row>
     <row r="142" ht="17.5" spans="1:2">
-      <c r="A142" s="117"/>
-      <c r="B142" s="117"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="51"/>
     </row>
     <row r="143" ht="17.5" spans="1:2">
-      <c r="A143" s="117"/>
-      <c r="B143" s="117"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="51"/>
     </row>
     <row r="144" ht="17.5" spans="1:2">
-      <c r="A144" s="117"/>
-      <c r="B144" s="117"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
     </row>
     <row r="145" ht="17.5" spans="1:2">
-      <c r="A145" s="117"/>
-      <c r="B145" s="117"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="51"/>
     </row>
     <row r="146" ht="17.5" spans="1:2">
-      <c r="A146" s="117"/>
-      <c r="B146" s="117"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="51"/>
     </row>
     <row r="148" ht="17.5" spans="1:2">
-      <c r="A148" s="117"/>
-      <c r="B148" s="117"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
     </row>
     <row r="149" ht="17.5" spans="1:2">
-      <c r="A149" s="117"/>
-      <c r="B149" s="117"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="51"/>
     </row>
     <row r="150" ht="17.5" spans="1:2">
-      <c r="A150" s="117"/>
-      <c r="B150" s="117"/>
+      <c r="A150" s="51"/>
+      <c r="B150" s="51"/>
     </row>
     <row r="151" ht="17.5" spans="1:2">
-      <c r="A151" s="117"/>
-      <c r="B151" s="117"/>
+      <c r="A151" s="51"/>
+      <c r="B151" s="51"/>
     </row>
     <row r="152" ht="17.5" spans="1:2">
-      <c r="A152" s="117"/>
-      <c r="B152" s="117"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="51"/>
     </row>
     <row r="153" ht="17.5" spans="1:2">
-      <c r="A153" s="117"/>
-      <c r="B153" s="117"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
     </row>
     <row r="154" ht="17.5" spans="1:2">
-      <c r="A154" s="117"/>
-      <c r="B154" s="117"/>
+      <c r="A154" s="51"/>
+      <c r="B154" s="51"/>
     </row>
     <row r="155" ht="17.5" spans="1:2">
-      <c r="A155" s="117"/>
-      <c r="B155" s="117"/>
+      <c r="A155" s="51"/>
+      <c r="B155" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14261,1054 +14252,1054 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="39.5454545454545" style="10" customWidth="1"/>
-    <col min="2" max="2" width="42.7272727272727" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.9090909090909" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.6363636363636" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.72727272727273" style="10"/>
+    <col min="1" max="1" width="39.5454545454545" style="9" customWidth="1"/>
+    <col min="2" max="2" width="42.7272727272727" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.9090909090909" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.6363636363636" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.72727272727273" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:4">
-      <c r="A1" s="72" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:4">
+      <c r="A1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="B5" s="82">
-        <v>0</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="40">
+        <v>0</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="B6" s="22">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="41" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
         <v>50</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="B9" s="82">
-        <v>0</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="40">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25">
-        <v>1</v>
-      </c>
-      <c r="D12" s="81">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="82">
-        <v>1</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
+      <c r="B13" s="40">
+        <v>1</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" ht="16.5" spans="1:4">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="82">
-        <v>0</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="40">
+        <v>0</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" ht="16.5" spans="1:4">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="B17" s="82">
-        <v>0</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="B17" s="40">
+        <v>0</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="81"/>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" ht="16.5" spans="1:4">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="B19" s="82">
-        <v>0</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
+      <c r="B19" s="40">
+        <v>0</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" ht="16.5" spans="1:4">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="22">
-        <v>0</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="81">
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:4">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="82">
-        <v>0</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="B21" s="40">
+        <v>0</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" ht="16.5" spans="1:4">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="81"/>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" ht="16.5" spans="1:4">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" ht="16.5" spans="1:4">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B24" s="22">
-        <v>0</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="81"/>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" ht="16.5" spans="1:4">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" ht="16.5" spans="1:4">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="B26" s="22">
-        <v>0</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="81"/>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" ht="16.5" spans="1:4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="B27" s="82">
-        <v>0</v>
-      </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="B27" s="40">
+        <v>0</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" ht="16.5" spans="1:4">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="22">
-        <v>0</v>
-      </c>
-      <c r="C28" s="25">
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
         <v>2</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:4">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="B29" s="82">
-        <v>0</v>
-      </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="40">
+        <v>0</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" ht="16.5" spans="1:4">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="11">
         <v>100</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" ht="16.5" spans="1:4">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B31" s="82">
-        <v>0</v>
-      </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
+      <c r="B31" s="40">
+        <v>0</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" ht="16.5" spans="1:4">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" ht="16.5" spans="1:4">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="B33" s="82">
-        <v>0</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
+      <c r="B33" s="40">
+        <v>0</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" ht="16.5" spans="1:4">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="B34" s="22">
-        <v>0</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="81"/>
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" ht="16.5" spans="1:4">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="B35" s="82">
-        <v>0</v>
-      </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="B35" s="40">
+        <v>0</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" ht="16.5" spans="1:4">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="B36" s="22">
-        <v>1</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="81"/>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" ht="16.5" spans="1:4">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" ht="16.5" spans="1:4">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="B38" s="22">
-        <v>1</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="81"/>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" ht="16.5" spans="1:4">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="B39" s="82">
-        <v>0</v>
-      </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="B39" s="40">
+        <v>0</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" ht="16.5" spans="1:4">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="B40" s="22">
-        <v>0</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" ht="16.5" spans="1:4">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="B41" s="82">
-        <v>0</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="B41" s="40">
+        <v>0</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" ht="16.5" spans="1:4">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="B42" s="22">
-        <v>1</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" ht="16.5" spans="1:4">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="B43" s="82">
-        <v>0</v>
-      </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
+      <c r="B43" s="40">
+        <v>0</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" ht="16.5" spans="1:4">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="B44" s="22">
-        <v>1</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="81"/>
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" ht="16.5" spans="1:4">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="B45" s="82">
-        <v>0</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="B45" s="40">
+        <v>0</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
     </row>
     <row r="46" ht="16.5" spans="1:4">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="B46" s="22">
-        <v>0</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="81"/>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" ht="16.5" spans="1:4">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B47" s="82">
-        <v>0</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
+      <c r="B47" s="40">
+        <v>0</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" ht="16.5" spans="1:4">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="38" t="s">
         <v>562</v>
       </c>
-      <c r="B48" s="22">
-        <v>0</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="81"/>
-    </row>
-    <row r="49" s="37" customFormat="1" spans="1:4">
-      <c r="A49" s="87" t="s">
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" s="20" customFormat="1" spans="1:4">
+      <c r="A49" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="89"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C50" s="25">
-        <v>1</v>
-      </c>
-      <c r="D50" s="81">
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:4">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="80"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52" ht="16.5" spans="1:4">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="81"/>
-    </row>
-    <row r="53" s="37" customFormat="1" spans="1:4">
-      <c r="A53" s="87" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" s="20" customFormat="1" spans="1:4">
+      <c r="A53" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="89"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" ht="16.5" spans="1:4">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="25">
-        <v>0</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="81"/>
+      <c r="B54" s="12">
+        <v>0</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="B55" s="79">
-        <v>0</v>
-      </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
+      <c r="B55" s="41">
+        <v>0</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="B56" s="25">
-        <v>0</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="81"/>
+      <c r="B56" s="12">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="B57" s="79">
-        <v>0</v>
-      </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="80">
+      <c r="B57" s="41">
+        <v>0</v>
+      </c>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="B58" s="25">
-        <v>0</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="81"/>
+      <c r="B58" s="12">
+        <v>0</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="B59" s="79">
-        <v>0</v>
-      </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" s="37" customFormat="1" spans="1:4">
-      <c r="A60" s="87" t="s">
+      <c r="B59" s="41">
+        <v>0</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" s="20" customFormat="1" spans="1:4">
+      <c r="A60" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="89"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="41" t="s">
         <v>574</v>
       </c>
-      <c r="D61" s="84" t="s">
+      <c r="D61" s="41" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="81"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="80"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="B64" s="25">
-        <v>0</v>
-      </c>
-      <c r="C64" s="25">
+      <c r="B64" s="12">
+        <v>0</v>
+      </c>
+      <c r="C64" s="12">
         <v>100</v>
       </c>
-      <c r="D64" s="81">
+      <c r="D64" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="65" s="37" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A65" s="87" t="s">
+    <row r="65" s="20" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A65" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="89"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" ht="16.5" spans="1:4">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C66" s="25">
-        <v>1</v>
-      </c>
-      <c r="D66" s="81">
+      <c r="C66" s="12">
+        <v>1</v>
+      </c>
+      <c r="D66" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:4">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80">
+      <c r="C67" s="41"/>
+      <c r="D67" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="1:4">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="81"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" ht="16.5" spans="1:4">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="39" t="s">
         <v>584</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="C69" s="79">
-        <v>1</v>
-      </c>
-      <c r="D69" s="80">
+      <c r="C69" s="41">
+        <v>1</v>
+      </c>
+      <c r="D69" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="1:4">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="81">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="1:4">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="B71" s="78" t="s">
+      <c r="B71" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="80"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
     </row>
     <row r="72" ht="16.5" spans="1:4">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="38" t="s">
         <v>590</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="C72" s="25">
-        <v>1</v>
-      </c>
-      <c r="D72" s="81">
+      <c r="C72" s="12">
+        <v>1</v>
+      </c>
+      <c r="D72" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:4">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="39" t="s">
         <v>592</v>
       </c>
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="40" t="s">
         <v>593</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80">
+      <c r="C73" s="41"/>
+      <c r="D73" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:4">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="81"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" ht="16.5" spans="1:4">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="C75" s="79">
-        <v>1</v>
-      </c>
-      <c r="D75" s="80"/>
+      <c r="C75" s="41">
+        <v>1</v>
+      </c>
+      <c r="D75" s="41"/>
     </row>
     <row r="76" ht="16.5" spans="1:4">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="38" t="s">
         <v>598</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="81"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" ht="16.5" spans="1:4">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
     </row>
     <row r="78" ht="16.5" spans="1:4">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="38" t="s">
         <v>602</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="C78" s="25">
-        <v>1</v>
-      </c>
-      <c r="D78" s="81"/>
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" ht="16.5" spans="1:4">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="40" t="s">
         <v>605</v>
       </c>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80" ht="16.5" spans="1:4">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="38" t="s">
         <v>606</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="81"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" ht="16.5" spans="1:4">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="39" t="s">
         <v>608</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="40" t="s">
         <v>609</v>
       </c>
-      <c r="C81" s="79"/>
-      <c r="D81" s="80"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82" ht="16.5" spans="1:4">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="81"/>
-    </row>
-    <row r="83" s="37" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A83" s="87" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" s="20" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A83" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C83" s="88"/>
-      <c r="D83" s="89"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" ht="16.5" spans="1:4">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="C84" s="25">
-        <v>1</v>
-      </c>
-      <c r="D84" s="81">
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="1:4">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="39" t="s">
         <v>615</v>
       </c>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="40" t="s">
         <v>616</v>
       </c>
-      <c r="C85" s="79"/>
-      <c r="D85" s="80">
+      <c r="C85" s="41"/>
+      <c r="D85" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="1:4">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="81">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="1:4">
-      <c r="A87" s="77" t="s">
+      <c r="A87" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="B87" s="78" t="s">
+      <c r="B87" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" ht="16.5" spans="1:4">
-      <c r="A88" s="75" t="s">
+      <c r="A88" s="38" t="s">
         <v>621</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="81"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
     </row>
     <row r="89" ht="16.5" spans="1:4">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="C89" s="79"/>
-      <c r="D89" s="80"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90" ht="16.5" spans="1:4">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="C90" s="25">
-        <v>1</v>
-      </c>
-      <c r="D90" s="81">
+      <c r="C90" s="12">
+        <v>1</v>
+      </c>
+      <c r="D90" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="1:4">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="40" t="s">
         <v>628</v>
       </c>
-      <c r="C91" s="79">
-        <v>1</v>
-      </c>
-      <c r="D91" s="80">
+      <c r="C91" s="41">
+        <v>1</v>
+      </c>
+      <c r="D91" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="1:4">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="38" t="s">
         <v>629</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="81"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
     </row>
     <row r="93" ht="16.5" spans="1:4">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="C93" s="79"/>
-      <c r="D93" s="80"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" ht="16.5" spans="1:4">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="81"/>
-    </row>
-    <row r="95" s="37" customFormat="1" spans="1:4">
-      <c r="A95" s="87" t="s">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" s="20" customFormat="1" spans="1:4">
+      <c r="A95" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="89"/>
-    </row>
-    <row r="96" s="37" customFormat="1" spans="1:4">
-      <c r="A96" s="87" t="s">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" s="20" customFormat="1" spans="1:4">
+      <c r="A96" s="44" t="s">
         <v>636</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="89"/>
-    </row>
-    <row r="97" s="37" customFormat="1" ht="14.75" spans="1:4">
-      <c r="A97" s="92" t="s">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" s="20" customFormat="1" ht="14.75" spans="1:4">
+      <c r="A97" s="47" t="s">
         <v>637</v>
       </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="94"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15327,662 +15318,662 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="35.4636363636364" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.0090909090909" style="10" customWidth="1"/>
-    <col min="3" max="3" width="40.6363636363636" style="10" customWidth="1"/>
-    <col min="4" max="4" width="34.1181818181818" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.2181818181818" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.3272727272727" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39.3545454545455" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="10"/>
+    <col min="1" max="1" width="35.4636363636364" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.0090909090909" style="9" customWidth="1"/>
+    <col min="3" max="3" width="40.6363636363636" style="9" customWidth="1"/>
+    <col min="4" max="4" width="34.1181818181818" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31.2181818181818" style="9" customWidth="1"/>
+    <col min="6" max="6" width="34.3272727272727" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.3545454545455" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.72727272727273" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" s="36" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A2" s="36" t="s">
+    <row r="2" s="19" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A2" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="68" customHeight="1" spans="1:7">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="51">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1</v>
-      </c>
-      <c r="F4" s="36">
-        <v>1</v>
-      </c>
-      <c r="G4" s="36">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="26">
         <v>8</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="26">
         <v>12</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="19">
         <v>100</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="19">
         <v>501</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="19">
         <v>501</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="19">
         <v>501</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="19">
         <v>501</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="19">
         <v>501</v>
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="B9" s="55">
-        <v>0</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="B10" s="51">
-        <v>0</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" s="37" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A11" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="24" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="13" ht="147" customHeight="1" spans="1:7">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="27" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" ht="31" customHeight="1" spans="1:7">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="G15" s="57"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="43" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:7">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" ht="44" customHeight="1" spans="1:7">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="G19" s="57"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="51" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="24" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1" spans="1:7">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="55" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="27" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="36" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="43"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" ht="47" customHeight="1" spans="1:7">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="25" t="s">
         <v>691</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="57"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="51" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:7">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="25" t="s">
         <v>694</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="55" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="27" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="43" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="24" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="28" t="s">
         <v>710</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="51" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" ht="35" customHeight="1" spans="1:7">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="26" t="s">
         <v>712</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="55" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="G29" s="57"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="24" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="31" ht="41" customHeight="1" spans="1:7">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="55" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="32" s="37" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A32" s="61" t="s">
+    <row r="32" s="20" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A32" s="29" t="s">
         <v>721</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
-    </row>
-    <row r="33" s="37" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A33" s="61" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" s="20" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A33" s="29" t="s">
         <v>723</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65"/>
-    </row>
-    <row r="34" s="37" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A34" s="61" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" s="20" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A34" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" s="38" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A35" s="68" t="s">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" s="20" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A35" s="32" t="s">
         <v>727</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="71"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15996,503 +15987,503 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="34.9090909090909" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.2727272727273" style="10" customWidth="1"/>
+    <col min="1" max="1" width="34.9090909090909" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.2727272727273" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
         <v>114</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
         <v>800</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="B15" s="24">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="B17" s="24">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:3">
+      <c r="A19" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:3">
+      <c r="A24" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:3">
-      <c r="A20" s="21" t="s">
-        <v>746</v>
-      </c>
-      <c r="B20" s="22">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:3">
-      <c r="A21" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="B21" s="24">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21" t="s">
-        <v>748</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:3">
-      <c r="A23" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="B23" s="24">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:3">
-      <c r="A24" s="21" t="s">
-        <v>750</v>
-      </c>
-      <c r="B24" s="22">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:3">
-      <c r="A25" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:3">
+      <c r="A28" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:3">
-      <c r="A26" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="B26" s="15" t="s">
+    <row r="32" s="8" customFormat="1" spans="1:3">
+      <c r="A32" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" s="8" customFormat="1" spans="1:3">
+      <c r="A42" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:3">
-      <c r="A27" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:3">
-      <c r="A28" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="20" t="s">
-        <v>758</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:3">
-      <c r="A32" s="29" t="s">
-        <v>759</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>760</v>
-      </c>
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" s="32">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" s="32">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="25">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B37" s="32">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="25">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="32">
-        <v>0</v>
-      </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="25">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="32">
-        <v>0</v>
-      </c>
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" s="9" customFormat="1" spans="1:3">
-      <c r="A42" s="29" t="s">
-        <v>761</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="C42" s="31"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="B44" s="25">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" s="9" customFormat="1" spans="1:3">
-      <c r="A45" s="29" t="s">
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" s="8" customFormat="1" spans="1:3">
+      <c r="A45" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="25">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13"/>
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B47" s="32">
-        <v>0</v>
-      </c>
-      <c r="C47" s="14"/>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="B48" s="25">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13"/>
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="32">
-        <v>0</v>
-      </c>
-      <c r="C49" s="14"/>
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B50" s="25">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13"/>
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B51" s="32">
-        <v>0</v>
-      </c>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" s="9" customFormat="1" spans="1:3">
-      <c r="A52" s="33" t="s">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="1:3">
+      <c r="A52" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="C52" s="35"/>
+      <c r="C52" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16533,39 +16524,39 @@
       <c r="B1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>729</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -16597,10 +16588,10 @@
       </c>
     </row>
     <row r="3" ht="84" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>729</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -16632,18 +16623,18 @@
       </c>
     </row>
     <row r="4" ht="17.5" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -16675,26 +16666,26 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" ht="17.5" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -16726,7 +16717,7 @@
       </c>
     </row>
     <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>810</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -16734,7 +16725,7 @@
       </c>
     </row>
     <row r="10" ht="15" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>811</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -16742,7 +16733,7 @@
       </c>
     </row>
     <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>812</v>
       </c>
       <c r="B11" s="5">
@@ -16750,7 +16741,7 @@
       </c>
     </row>
     <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>813</v>
       </c>
       <c r="B12" s="5">
@@ -16766,106 +16757,106 @@
       </c>
     </row>
     <row r="14" ht="17.5" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="15" ht="17.5" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="16" ht="17.5" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="17" ht="17.5" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="18" ht="17.5" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="19" ht="17.5" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="20" ht="17.5" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="21" ht="17.5" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="22" ht="17.5" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="23" ht="17.5" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="24" ht="17.5" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="25" ht="17.5" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="26" ht="17.5" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>840</v>
       </c>
     </row>
@@ -16915,7 +16906,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" ht="34" spans="1:4">
+    <row r="3" ht="17" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>847</v>
       </c>
@@ -17143,7 +17134,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" ht="34" spans="1:4">
+    <row r="22" ht="17" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>903</v>
       </c>
@@ -17167,7 +17158,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" ht="34" spans="1:4">
+    <row r="24" ht="17" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>909</v>
       </c>
@@ -17371,7 +17362,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" ht="34" spans="1:4">
+    <row r="41" ht="17" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>956</v>
       </c>
@@ -17503,7 +17494,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" ht="34" spans="1:4">
+    <row r="52" ht="17" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>986</v>
       </c>
@@ -17515,7 +17506,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" ht="43.5" spans="1:4">
+    <row r="53" ht="34" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>989</v>
       </c>
@@ -17527,7 +17518,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" ht="51" spans="1:4">
+    <row r="54" ht="34" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>992</v>
       </c>
@@ -17539,7 +17530,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" ht="51" spans="1:4">
+    <row r="55" ht="34" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>995</v>
       </c>

--- a/mod工具.xlsx
+++ b/mod工具.xlsx
@@ -18712,7 +18712,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{BE6607E7-6E5D-4D6D-A527-E14C16F00E96}">
+    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{030CFCE1-CCD0-45B9-96F4-B15A4C2D0792}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -18721,7 +18721,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="双色系标题行首列镶边行表格样式_766e57" count="9" xr9:uid="{D542C987-04D0-4CDC-9A90-1E73B41DF615}">
+    <tableStyle name="双色系标题行首列镶边行表格样式_766e57" count="9" xr9:uid="{88B512D6-5EA8-4F58-9079-7352DFCC0820}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -18732,7 +18732,7 @@
       <tableStyleElement type="firstHeaderCell" dxfId="8"/>
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边列表格样式_e714ff" count="7" xr9:uid="{30BB3F6A-ECF7-42BD-82B1-90DCB4EF2364}">
+    <tableStyle name="中色系标题行镶边列表格样式_e714ff" count="7" xr9:uid="{181E5282-F402-443C-BCC8-6132460C8EE7}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="totalRow" dxfId="20"/>
@@ -18741,7 +18741,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="17"/>
       <tableStyleElement type="firstColumnStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="简约边框浅色系标题行镶边行表格样式_85b9f4" count="10" xr9:uid="{24D1A77C-FF0A-45C2-9C38-2F555D0271A7}">
+    <tableStyle name="简约边框浅色系标题行镶边行表格样式_85b9f4" count="10" xr9:uid="{23D5BA89-A754-4794-A867-33148BA6773C}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
@@ -19015,7 +19015,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.2727272727273" defaultRowHeight="14"/>
@@ -19093,7 +19093,7 @@
         <v>9999</v>
       </c>
       <c r="J2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="27" customFormat="1" ht="56" customHeight="1" spans="1:12">
@@ -19294,11 +19294,6 @@
     </row>
     <row r="13" ht="17.5" spans="2:8">
       <c r="B13" s="58"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
       <c r="H13" s="61"/>
     </row>
     <row r="14" spans="8:8">
@@ -19454,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>79</v>
@@ -19483,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>83</v>
@@ -19868,7 +19863,6 @@
     </row>
     <row r="53" ht="17.5" spans="3:5">
       <c r="C53" s="58"/>
-      <c r="D53" s="10"/>
       <c r="E53" s="58"/>
     </row>
     <row r="54" spans="1:11">
@@ -40733,7 +40727,6 @@
       <c r="B5" s="58">
         <v>-1</v>
       </c>
-      <c r="C5" s="10"/>
       <c r="D5" s="58"/>
     </row>
     <row r="6" ht="17.5" spans="1:4">
@@ -40809,7 +40802,6 @@
       <c r="B13" s="58">
         <v>0</v>
       </c>
-      <c r="C13" s="10"/>
       <c r="D13" s="58"/>
     </row>
     <row r="14" ht="17.5" spans="1:4">
@@ -40819,7 +40811,6 @@
       <c r="B14" s="58">
         <v>0</v>
       </c>
-      <c r="C14" s="10"/>
       <c r="D14" s="58"/>
     </row>
     <row r="15" ht="17.5" spans="1:4">
@@ -40892,7 +40883,6 @@
       <c r="B21" s="58">
         <v>0</v>
       </c>
-      <c r="C21" s="10"/>
       <c r="D21" s="58"/>
     </row>
     <row r="22" ht="17.5" spans="1:4">
